--- a/biology/Zoologie/Bia_actorion/Bia_actorion.xlsx
+++ b/biology/Zoologie/Bia_actorion/Bia_actorion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Bia actorion est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae, de la tribu des Brassolini, et de la sous-tribu des Biina.
 </t>
@@ -511,14 +523,11 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce  Bia actorion  a été décrite par l’entomologiste suédois Carl von Linné en 1763, sous le nom initial de Papilio actorion[1].
-Synonyme
- Papilio actorion Linnaeus - protonyme
-Noms vernaculaires
-Bia actorion se nomme Uncertain Owlet ou Bia Owl en anglais[2].
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce  Bia actorion  a été décrite par l’entomologiste suédois Carl von Linné en 1763, sous le nom initial de Papilio actorion.</t>
         </is>
       </c>
     </row>
@@ -543,80 +552,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et  dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Papilio actorion Linnaeus - protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bia_actorion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et  dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bia actorion se nomme Uncertain Owlet ou Bia Owl en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bia_actorion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des sous-espèces
 Bia actorion actorion (Linné, 1763)
 Synonymie pour cette sous-espèce
-Bia actoriaena (Hübner, 1819)[3]
-Bia actorion decaerulea (Weymer, 1911) [4]
-Bia actorion rebeli (Bryk, 1953)[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bia_actorion</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bia actorion est un grand papillon de couleur marron à l'angle anal des ailes postérieures très pointu. Il présente aux ailes antérieures en position submarginale en e5 un ocelle foncé plus visible sur le revers.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bia_actorion</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les larves se nourrissent d’Astrocaryum murumuru et Geonoma[6].
-</t>
+Bia actoriaena (Hübner, 1819)
+Bia actorion decaerulea (Weymer, 1911) 
+Bia actorion rebeli (Bryk, 1953)</t>
         </is>
       </c>
     </row>
@@ -641,16 +663,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bia actorion est un grand papillon de couleur marron à l'angle anal des ailes postérieures très pointu. Il présente aux ailes antérieures en position submarginale en e5 un ocelle foncé plus visible sur le revers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bia_actorion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se nourrissent d’Astrocaryum murumuru et Geonoma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bia_actorion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bia actorion est présent au Brésil, en Équateur, en Guyane et au Pérou[7].
-Biotope
-Bia actorion ne réside que dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bia actorion est présent au Brésil, en Équateur, en Guyane et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bia_actorion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bia actorion ne réside que dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bia_actorion</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bia_actorion</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
